--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Narozzy-GitHub\AutoNiner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5DA2D-C525-47FA-96E8-AEDD96827994}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012BACFA-2B4C-4348-9189-92444C86503E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1605" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>&lt;&lt;FORM("Income",DIVISION(10))&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;FORM(["Income", "Financial Aid"],AVERAGE)&gt;&gt;</t>
+    <t>&lt;&lt;FORM(["Income":"Financial Aid"],AVERAGE)&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
